--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Wnt8a</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt8a</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,13 +543,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H2">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I2">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J2">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>0.7337343644453332</v>
+        <v>0.4371102329937778</v>
       </c>
       <c r="R2">
-        <v>6.603609280008</v>
+        <v>3.933992096944</v>
       </c>
       <c r="S2">
-        <v>0.06024290004613678</v>
+        <v>0.09366679259058336</v>
       </c>
       <c r="T2">
-        <v>0.06639370178027934</v>
+        <v>0.09901409354516792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,13 +605,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H3">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I3">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J3">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
         <v>1.472730893296</v>
@@ -638,10 +638,10 @@
         <v>13.254578039664</v>
       </c>
       <c r="S3">
-        <v>0.1209178475193237</v>
+        <v>0.3155862496727792</v>
       </c>
       <c r="T3">
-        <v>0.1332635630416682</v>
+        <v>0.3336026096596659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,43 +667,43 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H4">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I4">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J4">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>0.004216232164444444</v>
+        <v>0.002249588859555555</v>
       </c>
       <c r="R4">
-        <v>0.03794608947999999</v>
+        <v>0.020246299736</v>
       </c>
       <c r="S4">
-        <v>0.000346171673512857</v>
+        <v>0.0004820563720938481</v>
       </c>
       <c r="T4">
-        <v>0.0003815158107991306</v>
+        <v>0.0005095762692459595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,13 +729,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H5">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I5">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J5">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>0.7665928245213331</v>
+        <v>0.371440071132</v>
       </c>
       <c r="R5">
-        <v>4.599556947127999</v>
+        <v>2.228640426792</v>
       </c>
       <c r="S5">
-        <v>0.06294072779136557</v>
+        <v>0.07959456786052371</v>
       </c>
       <c r="T5">
-        <v>0.04624465187447591</v>
+        <v>0.05609233731515227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,43 +791,43 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H6">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I6">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J6">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>0.005291872490666667</v>
+        <v>0.009077656859555557</v>
       </c>
       <c r="R6">
-        <v>0.047626852416</v>
+        <v>0.08169891173600001</v>
       </c>
       <c r="S6">
-        <v>0.0004344865948225392</v>
+        <v>0.001945218707072868</v>
       </c>
       <c r="T6">
-        <v>0.0004788476879779069</v>
+        <v>0.00205626841382083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H7">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I7">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J7">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N7">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O7">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P7">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q7">
-        <v>0.3425922394723333</v>
+        <v>0.4526365180804444</v>
       </c>
       <c r="R7">
-        <v>3.083330155251</v>
+        <v>4.073728662724</v>
       </c>
       <c r="S7">
-        <v>0.02812836775706396</v>
+        <v>0.09699386483722137</v>
       </c>
       <c r="T7">
-        <v>0.03100027487053706</v>
+        <v>0.1025311035072798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H8">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I8">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J8">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P8">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q8">
-        <v>0.687641467162</v>
+        <v>1.525042731316</v>
       </c>
       <c r="R8">
-        <v>6.188773204458</v>
+        <v>13.725384581844</v>
       </c>
       <c r="S8">
-        <v>0.05645846532639213</v>
+        <v>0.3267959668379256</v>
       </c>
       <c r="T8">
-        <v>0.06222287617266031</v>
+        <v>0.3454522732737083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H9">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I9">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J9">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N9">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O9">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P9">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q9">
-        <v>0.001968625826111111</v>
+        <v>0.002329494922888889</v>
       </c>
       <c r="R9">
-        <v>0.017717632435</v>
+        <v>0.020965454306</v>
       </c>
       <c r="S9">
-        <v>0.0001616330577078908</v>
+        <v>0.0004991791573686551</v>
       </c>
       <c r="T9">
-        <v>0.0001781357972984994</v>
+        <v>0.0005276765694277339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H10">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I10">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J10">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N10">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O10">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P10">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q10">
-        <v>0.3579343768568333</v>
+        <v>0.384633732597</v>
       </c>
       <c r="R10">
-        <v>2.147606261141</v>
+        <v>2.307802395582</v>
       </c>
       <c r="S10">
-        <v>0.02938802642065569</v>
+        <v>0.08242179051209252</v>
       </c>
       <c r="T10">
-        <v>0.02159236314530764</v>
+        <v>0.05808475376893252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,681 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2480913333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.744274</v>
+      </c>
+      <c r="I11">
+        <v>0.5087251147969472</v>
+      </c>
+      <c r="J11">
+        <v>0.5087251147969472</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.1118643333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.335593</v>
-      </c>
-      <c r="I11">
-        <v>0.1143393612602941</v>
-      </c>
-      <c r="J11">
-        <v>0.1152172315839129</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M11">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N11">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O11">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P11">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q11">
-        <v>0.002470859394666667</v>
+        <v>0.00940009792288889</v>
       </c>
       <c r="R11">
-        <v>0.022237734552</v>
+        <v>0.08460088130600001</v>
       </c>
       <c r="S11">
-        <v>0.0002028686984743948</v>
+        <v>0.002014313452339013</v>
       </c>
       <c r="T11">
-        <v>0.0002235815981094377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.022363</v>
-      </c>
-      <c r="H12">
-        <v>0.044726</v>
-      </c>
-      <c r="I12">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J12">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.062569</v>
-      </c>
-      <c r="N12">
-        <v>9.187707</v>
-      </c>
-      <c r="O12">
-        <v>0.2460077391286943</v>
-      </c>
-      <c r="P12">
-        <v>0.2690593624267</v>
-      </c>
-      <c r="Q12">
-        <v>0.068488230547</v>
-      </c>
-      <c r="R12">
-        <v>0.410929383282</v>
-      </c>
-      <c r="S12">
-        <v>0.005623192570922708</v>
-      </c>
-      <c r="T12">
-        <v>0.004131547123627849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.022363</v>
-      </c>
-      <c r="H13">
-        <v>0.044726</v>
-      </c>
-      <c r="I13">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J13">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.147102</v>
-      </c>
-      <c r="N13">
-        <v>18.441306</v>
-      </c>
-      <c r="O13">
-        <v>0.4937797859292233</v>
-      </c>
-      <c r="P13">
-        <v>0.5400483531609876</v>
-      </c>
-      <c r="Q13">
-        <v>0.137467642026</v>
-      </c>
-      <c r="R13">
-        <v>0.8248058521560001</v>
-      </c>
-      <c r="S13">
-        <v>0.0112867133113096</v>
-      </c>
-      <c r="T13">
-        <v>0.008292724698364999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.022363</v>
-      </c>
-      <c r="H14">
-        <v>0.044726</v>
-      </c>
-      <c r="I14">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J14">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.01759833333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.05279499999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.001413625683459368</v>
-      </c>
-      <c r="P14">
-        <v>0.001546086421706485</v>
-      </c>
-      <c r="Q14">
-        <v>0.0003935515283333333</v>
-      </c>
-      <c r="R14">
-        <v>0.00236130917</v>
-      </c>
-      <c r="S14">
-        <v>3.231235516999664E-05</v>
-      </c>
-      <c r="T14">
-        <v>2.374096500812795E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.022363</v>
-      </c>
-      <c r="H15">
-        <v>0.044726</v>
-      </c>
-      <c r="I15">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J15">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.199718499999999</v>
-      </c>
-      <c r="N15">
-        <v>6.399436999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.2570245810080547</v>
-      </c>
-      <c r="P15">
-        <v>0.1874056757697904</v>
-      </c>
-      <c r="Q15">
-        <v>0.07155530481549999</v>
-      </c>
-      <c r="R15">
-        <v>0.2862212192619999</v>
-      </c>
-      <c r="S15">
-        <v>0.005875013199129211</v>
-      </c>
-      <c r="T15">
-        <v>0.002877712091840502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.022363</v>
-      </c>
-      <c r="H16">
-        <v>0.044726</v>
-      </c>
-      <c r="I16">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J16">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.022088</v>
-      </c>
-      <c r="N16">
-        <v>0.066264</v>
-      </c>
-      <c r="O16">
-        <v>0.001774268250568265</v>
-      </c>
-      <c r="P16">
-        <v>0.00194052222081558</v>
-      </c>
-      <c r="Q16">
-        <v>0.000493953944</v>
-      </c>
-      <c r="R16">
-        <v>0.002963723664</v>
-      </c>
-      <c r="S16">
-        <v>4.055584625408955E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.979773284020439E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.604545</v>
-      </c>
-      <c r="H17">
-        <v>1.813635</v>
-      </c>
-      <c r="I17">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J17">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.062569</v>
-      </c>
-      <c r="N17">
-        <v>9.187707</v>
-      </c>
-      <c r="O17">
-        <v>0.2460077391286943</v>
-      </c>
-      <c r="P17">
-        <v>0.2690593624267</v>
-      </c>
-      <c r="Q17">
-        <v>1.851460776105</v>
-      </c>
-      <c r="R17">
-        <v>16.663146984945</v>
-      </c>
-      <c r="S17">
-        <v>0.1520132787545709</v>
-      </c>
-      <c r="T17">
-        <v>0.1675338386522558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.604545</v>
-      </c>
-      <c r="H18">
-        <v>1.813635</v>
-      </c>
-      <c r="I18">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J18">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.147102</v>
-      </c>
-      <c r="N18">
-        <v>18.441306</v>
-      </c>
-      <c r="O18">
-        <v>0.4937797859292233</v>
-      </c>
-      <c r="P18">
-        <v>0.5400483531609876</v>
-      </c>
-      <c r="Q18">
-        <v>3.71619977859</v>
-      </c>
-      <c r="R18">
-        <v>33.44579800731</v>
-      </c>
-      <c r="S18">
-        <v>0.3051167597721979</v>
-      </c>
-      <c r="T18">
-        <v>0.3362691892482941</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.604545</v>
-      </c>
-      <c r="H19">
-        <v>1.813635</v>
-      </c>
-      <c r="I19">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J19">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.01759833333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.05279499999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.001413625683459368</v>
-      </c>
-      <c r="P19">
-        <v>0.001546086421706485</v>
-      </c>
-      <c r="Q19">
-        <v>0.010638984425</v>
-      </c>
-      <c r="R19">
-        <v>0.09575085982499998</v>
-      </c>
-      <c r="S19">
-        <v>0.0008735085970686231</v>
-      </c>
-      <c r="T19">
-        <v>0.0009626938486007274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.604545</v>
-      </c>
-      <c r="H20">
-        <v>1.813635</v>
-      </c>
-      <c r="I20">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J20">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.199718499999999</v>
-      </c>
-      <c r="N20">
-        <v>6.399436999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.2570245810080547</v>
-      </c>
-      <c r="P20">
-        <v>0.1874056757697904</v>
-      </c>
-      <c r="Q20">
-        <v>1.9343738205825</v>
-      </c>
-      <c r="R20">
-        <v>11.606242923495</v>
-      </c>
-      <c r="S20">
-        <v>0.1588208135969042</v>
-      </c>
-      <c r="T20">
-        <v>0.1166909486581664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.604545</v>
-      </c>
-      <c r="H21">
-        <v>1.813635</v>
-      </c>
-      <c r="I21">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J21">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.022088</v>
-      </c>
-      <c r="N21">
-        <v>0.066264</v>
-      </c>
-      <c r="O21">
-        <v>0.001774268250568265</v>
-      </c>
-      <c r="P21">
-        <v>0.00194052222081558</v>
-      </c>
-      <c r="Q21">
-        <v>0.01335318996</v>
-      </c>
-      <c r="R21">
-        <v>0.12017870964</v>
-      </c>
-      <c r="S21">
-        <v>0.001096357111017241</v>
-      </c>
-      <c r="T21">
-        <v>0.001208295201888031</v>
+        <v>0.002129307677598818</v>
       </c>
     </row>
   </sheetData>
